--- a/biology/Zoologie/Gracilineustes/Gracilineustes.xlsx
+++ b/biology/Zoologie/Gracilineustes/Gracilineustes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gracilineustes est un genre éteint de crocodyliformes métriorhynchidés carnivores, à long rostre, presque exclusivement marins[4].
-Il a vécu au Jurassique moyen et supérieur, du Callovien au Kimméridgien, soit il y a environ entre 166 et 152 Ma (millions d'années), dans ce qui est aujourd'hui l'Europe de l'ouest. Ses fossiles ont été découverts en Angleterre et en France[2],[3],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gracilineustes est un genre éteint de crocodyliformes métriorhynchidés carnivores, à long rostre, presque exclusivement marins.
+Il a vécu au Jurassique moyen et supérieur, du Callovien au Kimméridgien, soit il y a environ entre 166 et 152 Ma (millions d'années), dans ce qui est aujourd'hui l'Europe de l'ouest. Ses fossiles ont été découverts en Angleterre et en France.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son long rostre porte de très nombreuses dents, plus de 30 par os maxillaire et de 18 à 20 par os dentaire (sur la mandibule), séparées par des diastèmes très réduits[6]. Cette caractéristique se retrouve chez le genre Metriorhynchus dont il est très proche[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son long rostre porte de très nombreuses dents, plus de 30 par os maxillaire et de 18 à 20 par os dentaire (sur la mandibule), séparées par des diastèmes très réduits. Cette caractéristique se retrouve chez le genre Metriorhynchus dont il est très proche.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>† G. leedsi (espèce type), découverte dans le Callovien moyen d'Angleterre, près de Peterborough dans le Cambridgeshire, et décrite par Charles William Andrews en 1913[2]. Metriorhynchus laeve, M. laevis et M. loeve en sont des synonymes juniors.
-† G. acutus, découverte dans le Kimméridgien de France, au cap de la Hève à Sainte-Adresse dans le département de la Seine-Maritime, et décrite par Gustave Lennier en 1887[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>† G. leedsi (espèce type), découverte dans le Callovien moyen d'Angleterre, près de Peterborough dans le Cambridgeshire, et décrite par Charles William Andrews en 1913. Metriorhynchus laeve, M. laevis et M. loeve en sont des synonymes juniors.
+† G. acutus, découverte dans le Kimméridgien de France, au cap de la Hève à Sainte-Adresse dans le département de la Seine-Maritime, et décrite par Gustave Lennier en 1887.</t>
         </is>
       </c>
     </row>
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cladogramme
-Le cladogramme suivant est issu de l'analyse phylogénétique de Mark T. Young et ses collègues 2012[5] :
+          <t>Cladogramme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant est issu de l'analyse phylogénétique de Mark T. Young et ses collègues 2012 :
 </t>
         </is>
       </c>
